--- a/Project Outputs for CM4_Home_Controller/BOM/Bill of Materials-CM4_Home_Controller.xlsx
+++ b/Project Outputs for CM4_Home_Controller/BOM/Bill of Materials-CM4_Home_Controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>Comment</t>
   </si>
@@ -39,19 +39,43 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>3034TR</t>
-  </si>
-  <si>
-    <t>BATTERY RETAINER COIN 20MM SMD</t>
-  </si>
-  <si>
-    <t>BT1</t>
-  </si>
-  <si>
-    <t>FP-3034TR-MFG</t>
-  </si>
-  <si>
-    <t>CMP-19636-000007-1</t>
+    <t>SMD Pad</t>
+  </si>
+  <si>
+    <t>Through Hole Pad</t>
+  </si>
+  <si>
+    <t>B9, B10, B11, B12</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>SMD_PAD_D1MM</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>Battery for use only with Socket Holder</t>
+  </si>
+  <si>
+    <t>BAT1</t>
+  </si>
+  <si>
+    <t>BAT_VARTA_CR1220</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Battery Holder whit 2 Pin</t>
+  </si>
+  <si>
+    <t>BATH1</t>
+  </si>
+  <si>
+    <t>BATH_KEYSTONE_3000</t>
   </si>
   <si>
     <t>1uF</t>
@@ -72,7 +96,7 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C4, C5, C6, C13, C14, C35, C36, C42, C46</t>
+    <t>C4, C5, C6, C13, C14, C27, C35, C36, C42, C46</t>
   </si>
   <si>
     <t>CAPC2012X95N</t>
@@ -84,7 +108,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C7, C8, C9, C10, C11, C12, C26, C30, C31, C32, C33, C34, C45, C48, C49, C50, C51</t>
+    <t>C7, C8, C9, C10, C11, C12, C26, C28, C29, C30, C31, C32, C33, C34, C45, C48, C49, C50, C51, C52</t>
   </si>
   <si>
     <t>CC0402_100NF_16V_10%_X5R</t>
@@ -249,508 +273,559 @@
     <t>155060RS75300</t>
   </si>
   <si>
-    <t>AP22615AWU-7</t>
+    <t>SMBJ12A</t>
+  </si>
+  <si>
+    <t>TVS DIODE 12V 19.9V DO214AA</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>FP-SMBJ-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2000-07093-2</t>
+  </si>
+  <si>
+    <t>1-2199230-6</t>
+  </si>
+  <si>
+    <t>CONN EDGE DUAL FMALE 67POS 0.020</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>FP-1-2199230-6-MFG</t>
+  </si>
+  <si>
+    <t>CMP-03365-000001-1</t>
+  </si>
+  <si>
+    <t>0826-1X1T-GH-F / 0826-1X1T-M1-F</t>
+  </si>
+  <si>
+    <t>MagJack 1000BASE-T | PoE+ | 1X1 | OG/Y | -40 to 85C | Tab Up | RoHS</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>BEL_0826-1X1T-GH-F</t>
+  </si>
+  <si>
+    <t>0826-1X1T-GH-F</t>
+  </si>
+  <si>
+    <t>PC-GK2.1</t>
+  </si>
+  <si>
+    <t>Low Voltage Power Supply Connector (maritex)</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>DC2020</t>
+  </si>
+  <si>
+    <t>CON_DC_JACK_TH</t>
+  </si>
+  <si>
+    <t>685119134923</t>
+  </si>
+  <si>
+    <t>HDMI Type A Receptacle WR-HDMI, Horizontal, SMT</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>CMP-1502-00169-1</t>
+  </si>
+  <si>
+    <t>61400826021</t>
+  </si>
+  <si>
+    <t>USB 2.0 Type A Receptacle WR-COM, Stacked Horizontal, THT</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>CMP-1502-03229-1</t>
+  </si>
+  <si>
+    <t>MicroUSB-B</t>
+  </si>
+  <si>
+    <t>MicroUSB-B-SMT</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB-Micro-B-RA-SMD-PiP</t>
+  </si>
+  <si>
+    <t>MiniUSB-AB-SMT</t>
+  </si>
+  <si>
+    <t>U.FL</t>
+  </si>
+  <si>
+    <t>UFL</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>CON_UFL_HIROSE_RECEPTACLE</t>
+  </si>
+  <si>
+    <t>CON_UFL_SMD</t>
+  </si>
+  <si>
+    <t>61300211121</t>
+  </si>
+  <si>
+    <t>WR-PHD Pin Header, THT, pitch 2.54mm, Single Row, Vertical, 2pin</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>61301421121</t>
+  </si>
+  <si>
+    <t>WR-PHD Pin Header, THT, pitch 2.54mm, Dual Row, Vertical, 14pin</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>90R@100MHz</t>
+  </si>
+  <si>
+    <t>Inductor Common Mode</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND_MURATA_DLW21S</t>
+  </si>
+  <si>
+    <t>IND_MURATA_DLW21SN900SQ2L</t>
+  </si>
+  <si>
+    <t>120R@100MHz</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L2, L3, L4, L5</t>
+  </si>
+  <si>
+    <t>INDC1608X65N</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18SG121TN1D</t>
+  </si>
+  <si>
+    <t>600R@100MHz</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>INDC2012X110N</t>
+  </si>
+  <si>
+    <t>IND0805_WURTH_742792040</t>
+  </si>
+  <si>
+    <t>M2.5x2.5mm</t>
+  </si>
+  <si>
+    <t>WA-SMSI SMT Steel Spacer, internal Thread, OD 5.1mm, M2.5x2.5mm</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>9774025151</t>
+  </si>
+  <si>
+    <t>62201021121</t>
+  </si>
+  <si>
+    <t>THT Vertical Pin Header WR-PHD, Pitch 1.27 mm, Dual Row, 10 pins</t>
+  </si>
+  <si>
+    <t>P1, P2</t>
+  </si>
+  <si>
+    <t>CMP-1502-00948-1</t>
+  </si>
+  <si>
+    <t>DMP3013SFV-7</t>
+  </si>
+  <si>
+    <t>MOSFET (P-Channel)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>DMP3013SFV7</t>
+  </si>
+  <si>
+    <t>25MHz</t>
+  </si>
+  <si>
+    <t>Crystal 4 pins 1=XTAL Control 2=GND3=XTAL 4=GND</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>XTAL_EPSON_TSX-3225</t>
+  </si>
+  <si>
+    <t>XTAL_25MHZ_EPSON_TSX-3225 25.0000MF10Z-AC</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1, R18, R31, R32</t>
+  </si>
+  <si>
+    <t>RESC1005X40N</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Resistor - 1%</t>
+  </si>
+  <si>
+    <t>R2, R3, R17, R26, R28</t>
+  </si>
+  <si>
+    <t>R0402_560R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>510k</t>
+  </si>
+  <si>
+    <t>R4, R20</t>
+  </si>
+  <si>
+    <t>R0402_510K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>R5, R7, R12, R29</t>
+  </si>
+  <si>
+    <t>R0402_12K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R0402_150R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>36k</t>
+  </si>
+  <si>
+    <t>R8, R9, R10, R11, R15</t>
+  </si>
+  <si>
+    <t>R0402_36K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R0402_15K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>R14, R19, R25, R27</t>
+  </si>
+  <si>
+    <t>R0402_4K7_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>6k8</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R0402_6K8_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>R21, R24</t>
+  </si>
+  <si>
+    <t>R0402_51R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R22, R23</t>
+  </si>
+  <si>
+    <t>R0402_1K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>431256038716</t>
+  </si>
+  <si>
+    <t>WS-TATU THT Tact Switch 6X6 mm right angle type with ground terminal</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>CMP-1458-00004-1</t>
+  </si>
+  <si>
+    <t>ESD224DQAR</t>
+  </si>
+  <si>
+    <t>ESD224 4-CHANNEL LOW CAP ESD</t>
+  </si>
+  <si>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>FP-DQA0010A-MFG</t>
+  </si>
+  <si>
+    <t>CMP-04985-000015-1</t>
+  </si>
+  <si>
+    <t>USB2514B-AEZC</t>
+  </si>
+  <si>
+    <t>USB 2.0 High-Speed Hub Controller, 4 Ports, 3 to 3.6 V, 0 to 85 degC, 36-Pin QFN, RoHS, Tray</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>MCHP-QFN-36_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-05217-1</t>
+  </si>
+  <si>
+    <t>MYMGA5R04RELA5RA</t>
+  </si>
+  <si>
+    <t>DC DC CONVERTER 3.3-5V 20W</t>
+  </si>
+  <si>
+    <t>U4, U6</t>
+  </si>
+  <si>
+    <t>FP-MYMGA-MFG</t>
+  </si>
+  <si>
+    <t>CMP-20596-000031-1</t>
+  </si>
+  <si>
+    <t>TPD4EUSB30DQAR</t>
+  </si>
+  <si>
+    <t>ESD Solution for Super-Speed (6 GBPS) USB 3.0 Interface, 4 Channels, -40 to +85 degC, 10-pin SON (DQA), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>DQA0010A_V</t>
+  </si>
+  <si>
+    <t>CMP-0326-00027-3</t>
+  </si>
+  <si>
+    <t>SN74LVC1G07QDBVRQ1</t>
+  </si>
+  <si>
+    <t>IC BUF NON-INVERT 5.5V SOT23-5</t>
+  </si>
+  <si>
+    <t>U7, U14</t>
+  </si>
+  <si>
+    <t>FP-DBV0005A-IPC_A</t>
+  </si>
+  <si>
+    <t>CMP-0859-00130-4</t>
+  </si>
+  <si>
+    <t>PCF85063AT/AAZ</t>
+  </si>
+  <si>
+    <t>IC RTC CLK/CALENDAR I2C 8SOIC</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>FP-SOT96-1-MFG</t>
+  </si>
+  <si>
+    <t>CMP-10083-000015-1</t>
+  </si>
+  <si>
+    <t>AP22653W6-7</t>
+  </si>
+  <si>
+    <t>LOAD SWITCH,SOT26,T&amp;R,3K</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>FP-SOT26-MFG</t>
+  </si>
+  <si>
+    <t>CMP-12749-000002-1</t>
+  </si>
+  <si>
+    <t>FSUSB30MUX</t>
+  </si>
+  <si>
+    <t>IC USB SWITCH 2X2 10MSOP</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>FP-846AP-IPC_C</t>
+  </si>
+  <si>
+    <t>CMP-07103-000007-1</t>
+  </si>
+  <si>
+    <t>SHT30-DIS-B2.5KS</t>
+  </si>
+  <si>
+    <t>SENSOR HUMID/TEMP 5V I2C 3% SMD</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>FP-SHT30-DIS-B2_5KS-MFG</t>
+  </si>
+  <si>
+    <t>CMP-144040-000006-1</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN20R</t>
+  </si>
+  <si>
+    <t>IC USB TO UART BRIDGE QFN20</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>FP-CP2102N-A02-GQFN20R-MFG</t>
+  </si>
+  <si>
+    <t>CMP-08107-000007-1</t>
+  </si>
+  <si>
+    <t>MIC2003-0.5YM5-TR</t>
+  </si>
+  <si>
+    <t>IC PWR SWITCH P-CHAN 1:1 SOT23-5</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>FP-SOT23-5LD-PL-1-IPC_A</t>
+  </si>
+  <si>
+    <t>CMP-06320-000017-1</t>
+  </si>
+  <si>
+    <t>BD2245G-MGTR</t>
   </si>
   <si>
     <t>Integrated Circuit</t>
   </si>
   <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>SOT95P280X100-6N</t>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>SOT95P280X125-6N</t>
+  </si>
+  <si>
+    <t>Ag9912M</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>Ag9900M</t>
   </si>
   <si>
     <t>TPD13S523PWR</t>
   </si>
   <si>
-    <t>IC2</t>
+    <t>U17</t>
   </si>
   <si>
     <t>SOP65P640X120-16N</t>
   </si>
   <si>
-    <t>Ag9912M</t>
-  </si>
-  <si>
-    <t>IC3</t>
-  </si>
-  <si>
-    <t>Ag9900M</t>
-  </si>
-  <si>
-    <t>1-2199230-6</t>
-  </si>
-  <si>
-    <t>CONN EDGE DUAL FMALE 67POS 0.020</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>FP-1-2199230-6-MFG</t>
-  </si>
-  <si>
-    <t>CMP-03365-000001-1</t>
-  </si>
-  <si>
-    <t>0826-1X1T-GH-F / 0826-1X1T-M1-F</t>
-  </si>
-  <si>
-    <t>MagJack 1000BASE-T | PoE+ | 1X1 | OG/Y | -40 to 85C | Tab Up | RoHS</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>BEL_0826-1X1T-GH-F</t>
-  </si>
-  <si>
-    <t>0826-1X1T-GH-F</t>
-  </si>
-  <si>
-    <t>PC-GK2.1</t>
-  </si>
-  <si>
-    <t>Low Voltage Power Supply Connector (maritex)</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>DC2020</t>
-  </si>
-  <si>
-    <t>CON_DC_JACK_TH</t>
-  </si>
-  <si>
-    <t>685119134923</t>
-  </si>
-  <si>
-    <t>HDMI Type A Receptacle WR-HDMI, Horizontal, SMT</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>CMP-1502-00169-1</t>
-  </si>
-  <si>
-    <t>61400826021</t>
-  </si>
-  <si>
-    <t>USB 2.0 Type A Receptacle WR-COM, Stacked Horizontal, THT</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>CMP-1502-03229-1</t>
-  </si>
-  <si>
-    <t>MicroUSB-B</t>
-  </si>
-  <si>
-    <t>MicroUSB-B-SMT</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB-Micro-B-RA-SMD-PiP</t>
-  </si>
-  <si>
-    <t>MiniUSB-AB-SMT</t>
-  </si>
-  <si>
-    <t>U.FL</t>
-  </si>
-  <si>
-    <t>UFL</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>CON_UFL_HIROSE_RECEPTACLE</t>
-  </si>
-  <si>
-    <t>CON_UFL_SMD</t>
-  </si>
-  <si>
-    <t>61300211121</t>
-  </si>
-  <si>
-    <t>WR-PHD Pin Header, THT, pitch 2.54mm, Single Row, Vertical, 2pin</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>90R@100MHz</t>
-  </si>
-  <si>
-    <t>Inductor Common Mode</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>IND_MURATA_DLW21S</t>
-  </si>
-  <si>
-    <t>IND_MURATA_DLW21SN900SQ2L</t>
-  </si>
-  <si>
-    <t>120R@100MHz</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L2, L3, L4, L5</t>
-  </si>
-  <si>
-    <t>INDC1608X65N</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18SG121TN1D</t>
-  </si>
-  <si>
     <t>MGM210P032JIA2</t>
   </si>
   <si>
     <t>RX TXRX MOD BLUETOOTH CHIP SMD</t>
   </si>
   <si>
-    <t>MD1</t>
+    <t>U18</t>
   </si>
   <si>
     <t>FP-MGM210P032JIA2-MFG</t>
   </si>
   <si>
     <t>CMP-08140-000013-1</t>
-  </si>
-  <si>
-    <t>M2.5x2.5mm</t>
-  </si>
-  <si>
-    <t>WA-SMSI SMT Steel Spacer, internal Thread, OD 5.1mm, M2.5x2.5mm</t>
-  </si>
-  <si>
-    <t>MP1</t>
-  </si>
-  <si>
-    <t>9774025151</t>
-  </si>
-  <si>
-    <t>62201021121</t>
-  </si>
-  <si>
-    <t>THT Vertical Pin Header WR-PHD, Pitch 1.27 mm, Dual Row, 10 pins</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>CMP-1502-00948-1</t>
-  </si>
-  <si>
-    <t>DMP3013SFV-7</t>
-  </si>
-  <si>
-    <t>MOSFET (P-Channel)</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>DMP3013SFV7</t>
-  </si>
-  <si>
-    <t>25MHz</t>
-  </si>
-  <si>
-    <t>Crystal 4 pins 1=XTAL Control 2=GND3=XTAL 4=GND</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>XTAL_EPSON_TSX-3225</t>
-  </si>
-  <si>
-    <t>XTAL_25MHZ_EPSON_TSX-3225 25.0000MF10Z-AC</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1, R18</t>
-  </si>
-  <si>
-    <t>RESC1005X40N</t>
-  </si>
-  <si>
-    <t>R0402_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>Resistor - 1%</t>
-  </si>
-  <si>
-    <t>R2, R3, R17, R26, R28</t>
-  </si>
-  <si>
-    <t>R0402_560R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>510k</t>
-  </si>
-  <si>
-    <t>R4, R20</t>
-  </si>
-  <si>
-    <t>R0402_510K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>R5, R7, R12</t>
-  </si>
-  <si>
-    <t>R0402_12K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R0402_150R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>36k</t>
-  </si>
-  <si>
-    <t>R8, R9, R10, R11, R15</t>
-  </si>
-  <si>
-    <t>R0402_36K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R0402_15K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>R14, R19, R25, R27</t>
-  </si>
-  <si>
-    <t>R0402_4K7_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>6k8</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R0402_6K8_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>R21, R24</t>
-  </si>
-  <si>
-    <t>R0402_51R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R22, R23</t>
-  </si>
-  <si>
-    <t>R0402_1K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>431256038716</t>
-  </si>
-  <si>
-    <t>WS-TATU THT Tact Switch 6X6 mm right angle type with ground terminal</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>CMP-1458-00004-1</t>
-  </si>
-  <si>
-    <t>TPD4EUSB30DQAR</t>
-  </si>
-  <si>
-    <t>ESD Solution for Super-Speed (6 GBPS) USB 3.0 Interface, 4 Channels, -40 to +85 degC, 10-pin SON (DQA), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>U1, U2, U5</t>
-  </si>
-  <si>
-    <t>DQA0010A_V</t>
-  </si>
-  <si>
-    <t>CMP-0326-00027-3</t>
-  </si>
-  <si>
-    <t>USB2514B-AEZC</t>
-  </si>
-  <si>
-    <t>USB 2.0 High-Speed Hub Controller, 4 Ports, 3 to 3.6 V, 0 to 85 degC, 36-Pin QFN, RoHS, Tray</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MCHP-QFN-36_V</t>
-  </si>
-  <si>
-    <t>CMP-2000-05217-1</t>
-  </si>
-  <si>
-    <t>MYMGA5R04RELA5RA</t>
-  </si>
-  <si>
-    <t>DC DC CONVERTER 3.3-5V 20W</t>
-  </si>
-  <si>
-    <t>U4, U6</t>
-  </si>
-  <si>
-    <t>FP-MYMGA-MFG</t>
-  </si>
-  <si>
-    <t>CMP-20596-000031-1</t>
-  </si>
-  <si>
-    <t>SN74LVC1G07QDBVRQ1</t>
-  </si>
-  <si>
-    <t>IC BUF NON-INVERT 5.5V SOT23-5</t>
-  </si>
-  <si>
-    <t>U7, U14</t>
-  </si>
-  <si>
-    <t>FP-DBV0005A-IPC_A</t>
-  </si>
-  <si>
-    <t>CMP-0859-00130-4</t>
-  </si>
-  <si>
-    <t>PCF85063AT/AAZ</t>
-  </si>
-  <si>
-    <t>IC RTC CLK/CALENDAR I2C 8SOIC</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>FP-SOT96-1-MFG</t>
-  </si>
-  <si>
-    <t>CMP-10083-000015-1</t>
-  </si>
-  <si>
-    <t>AP22653W6-7</t>
-  </si>
-  <si>
-    <t>LOAD SWITCH,SOT26,T&amp;R,3K</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>FP-SOT26-MFG</t>
-  </si>
-  <si>
-    <t>CMP-12749-000002-1</t>
-  </si>
-  <si>
-    <t>FSUSB30MUX</t>
-  </si>
-  <si>
-    <t>IC USB SWITCH 2X2 10MSOP</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>FP-846AP-IPC_C</t>
-  </si>
-  <si>
-    <t>CMP-07103-000007-1</t>
-  </si>
-  <si>
-    <t>SHT30-DIS-B2.5KS</t>
-  </si>
-  <si>
-    <t>SENSOR HUMID/TEMP 5V I2C 3% SMD</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>FP-SHT30-DIS-B2_5KS-MFG</t>
-  </si>
-  <si>
-    <t>CMP-144040-000006-1</t>
-  </si>
-  <si>
-    <t>CP2102N-A02-GQFN20R</t>
-  </si>
-  <si>
-    <t>IC USB TO UART BRIDGE QFN20</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>FP-CP2102N-A02-GQFN20R-MFG</t>
-  </si>
-  <si>
-    <t>CMP-08107-000007-1</t>
-  </si>
-  <si>
-    <t>MIC2003-0.5YM5-TR</t>
-  </si>
-  <si>
-    <t>IC PWR SWITCH P-CHAN 1:1 SOT23-5</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>FP-SOT23-5LD-PL-1-IPC_A</t>
-  </si>
-  <si>
-    <t>CMP-06320-000017-1</t>
   </si>
   <si>
     <t>ASDK-32.768KHZ-LRT</t>
@@ -1057,7 +1132,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1105,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1122,18 +1197,18 @@
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>18</v>
@@ -1142,78 +1217,78 @@
         <v>19</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="27">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="27">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="27">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="27">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>33</v>
@@ -1225,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="27">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1233,36 +1308,36 @@
         <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="27">
         <v>1</v>
@@ -1270,19 +1345,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="27">
         <v>1</v>
@@ -1290,19 +1365,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="27">
         <v>1</v>
@@ -1325,7 +1400,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1342,7 +1417,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="27">
         <v>1</v>
@@ -1350,39 +1425,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="27">
         <v>1</v>
@@ -1390,19 +1465,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F17" s="27">
         <v>1</v>
@@ -1410,19 +1485,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
@@ -1433,16 +1508,16 @@
         <v>81</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F19" s="27">
         <v>1</v>
@@ -1450,19 +1525,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" s="27">
         <v>1</v>
@@ -1470,19 +1545,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F21" s="27">
         <v>1</v>
@@ -1490,19 +1565,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F22" s="27">
         <v>1</v>
@@ -1510,19 +1585,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F23" s="27">
         <v>1</v>
@@ -1530,19 +1605,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F24" s="27">
         <v>1</v>
@@ -1550,19 +1625,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F25" s="27">
         <v>1</v>
@@ -1570,19 +1645,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F26" s="27">
         <v>1</v>
@@ -1590,19 +1665,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F27" s="27">
         <v>1</v>
@@ -1610,19 +1685,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F28" s="27">
         <v>1</v>
@@ -1630,19 +1705,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>126</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="27">
         <v>1</v>
@@ -1650,50 +1725,50 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F31" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>140</v>
@@ -1702,7 +1777,7 @@
         <v>141</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="27">
         <v>1</v>
@@ -1710,19 +1785,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="27">
         <v>1</v>
@@ -1730,39 +1805,39 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>149</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F34" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="F35" s="27">
         <v>1</v>
@@ -1785,7 +1860,7 @@
         <v>159</v>
       </c>
       <c r="F36" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1799,190 +1874,190 @@
         <v>162</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F37" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F38" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F39" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F40" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F41" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F42" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F43" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F44" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F45" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F46" s="27">
         <v>2</v>
@@ -1990,42 +2065,42 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F47" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>199</v>
       </c>
       <c r="F48" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2045,7 +2120,7 @@
         <v>204</v>
       </c>
       <c r="F49" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2065,7 +2140,7 @@
         <v>209</v>
       </c>
       <c r="F50" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2125,7 +2200,7 @@
         <v>224</v>
       </c>
       <c r="F53" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2245,6 +2320,126 @@
         <v>254</v>
       </c>
       <c r="F59" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F65" s="27">
         <v>1</v>
       </c>
     </row>
